--- a/tp2/resultat.xlsx
+++ b/tp2/resultat.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INF4705_tps\tp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louise\Documents\Polytechnique\session6_H2016\INF4705\INF4705_tps\tp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="23030" windowHeight="9970"/>
+    <workbookView xWindow="1928" yWindow="0" windowWidth="23033" windowHeight="9968"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -427,23 +427,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="19" max="19" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>10.01</v>
       </c>
@@ -623,7 +623,7 @@
         <v>30.004000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>10.02</v>
       </c>
@@ -718,7 +718,7 @@
         <v>30.007000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>10.029999999999999</v>
       </c>
@@ -813,7 +813,7 @@
         <v>30.007000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>10.039999999999999</v>
       </c>
@@ -908,7 +908,7 @@
         <v>30.006</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>10.050000000000001</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>30.018999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>10.06</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>10.07</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>30.009</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10.08</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>30.013000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10.09</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>30.047999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>10.1</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>30.016999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>100.01</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>30.007999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>100.02</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>30.015000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>100.03</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>100.04</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>30.013999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>100.05</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>30.015999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>100.06</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>30.018000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>100.07</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>30.029</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>100.08</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>30.045000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>100.09</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>30.016999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>100.1</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>30.047999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1000.01</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>30.041</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>1000.02</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>30.050999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>1000.03</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>30.045999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>1000.04</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>1000.05</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>30.050999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>1000.06</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>30.050999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>1000.07</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>30.053999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>1000.08</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>30.061</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>1000.09</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>30.077999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>1000.1</v>
       </c>
@@ -3378,169 +3378,253 @@
         <v>30.079000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <f>AVERAGE(B4:B33)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE(C4:C33)</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(D4:D33)</f>
+        <v>6.666666666666667E-5</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(E4:E33)</f>
+        <v>6.3333333333333351E-4</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F4:F33)</f>
+        <v>7.0000000000000021E-4</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(G4:G33)</f>
+        <v>3.6333333333333348E-3</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(H4:H33)</f>
+        <v>1.2433333333333334E-2</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(K4:K33)</f>
+        <v>1.5333333333333336E-3</v>
+      </c>
+      <c r="L34">
+        <f>AVERAGE(L4:L33)</f>
+        <v>2.6666666666666668E-4</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(M4:M33)</f>
+        <v>1.0666666666666667E-3</v>
+      </c>
+      <c r="N34">
+        <f>AVERAGE(N4:N33)</f>
+        <v>7.6666666666666654E-3</v>
+      </c>
+      <c r="O34">
+        <f>AVERAGE(O4:O33)</f>
+        <v>8.1533333333333333E-2</v>
+      </c>
+      <c r="P34">
+        <f>AVERAGE(P4:P33)</f>
+        <v>0.84376666666666666</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(Q4:Q33)</f>
+        <v>8.405033333333332</v>
+      </c>
+      <c r="T34">
+        <f>AVERAGE(T4:T33)</f>
+        <v>9.000000000000003E-4</v>
+      </c>
+      <c r="U34">
+        <f>AVERAGE(U4:U33)</f>
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="V34">
+        <f>AVERAGE(V4:V33)</f>
+        <v>9.6666666666666678E-4</v>
+      </c>
+      <c r="W34">
+        <f>AVERAGE(W4:W33)</f>
+        <v>4.6900000000000004E-2</v>
+      </c>
+      <c r="X34">
+        <f>AVERAGE(X4:X33)</f>
+        <v>0.51123333333333332</v>
+      </c>
+      <c r="Y34">
+        <f>AVERAGE(Y4:Y33)</f>
+        <v>24.210133333333335</v>
+      </c>
+      <c r="Z34">
+        <f>AVERAGE(Z4:Z33)</f>
+        <v>30.030800000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
     </row>
   </sheetData>
@@ -3556,18 +3640,18 @@
       <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3602,7 +3686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3637,7 +3721,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3672,7 +3756,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10</v>
       </c>
@@ -3707,7 +3791,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3742,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3777,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>10</v>
       </c>
@@ -3812,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10</v>
       </c>
@@ -3847,7 +3931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3882,7 +3966,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3917,7 +4001,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3952,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3987,7 +4071,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4022,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4057,7 +4141,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4092,7 +4176,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4127,7 +4211,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10</v>
       </c>
@@ -4162,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10</v>
       </c>
@@ -4197,7 +4281,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10</v>
       </c>
@@ -4232,7 +4316,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10</v>
       </c>
@@ -4267,7 +4351,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
@@ -4302,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10</v>
       </c>
@@ -4337,7 +4421,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -4372,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10</v>
       </c>
@@ -4407,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10</v>
       </c>
@@ -4442,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10</v>
       </c>
@@ -4477,7 +4561,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10</v>
       </c>
@@ -4512,7 +4596,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>10</v>
       </c>
@@ -4547,7 +4631,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>20</v>
       </c>
@@ -4582,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>20</v>
       </c>
@@ -4617,7 +4701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>20</v>
       </c>
@@ -4652,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4687,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>20</v>
       </c>
@@ -4722,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4757,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>20</v>
       </c>
@@ -4792,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>20</v>
       </c>
@@ -4827,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>20</v>
       </c>
@@ -4862,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>20</v>
       </c>
@@ -4897,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>20</v>
       </c>
@@ -4932,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>20</v>
       </c>
@@ -4967,7 +5051,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>20</v>
       </c>
@@ -5002,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>20</v>
       </c>
@@ -5037,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>20</v>
       </c>
@@ -5072,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>20</v>
       </c>
@@ -5107,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>20</v>
       </c>
@@ -5142,7 +5226,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>20</v>
       </c>
@@ -5177,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>20</v>
       </c>
@@ -5212,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>20</v>
       </c>
@@ -5247,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>20</v>
       </c>
@@ -5282,7 +5366,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>20</v>
       </c>
@@ -5317,7 +5401,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>20</v>
       </c>
@@ -5352,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>20</v>
       </c>
@@ -5387,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>20</v>
       </c>
@@ -5422,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>20</v>
       </c>
@@ -5457,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>20</v>
       </c>
@@ -5492,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>20</v>
       </c>
@@ -5527,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>20</v>
       </c>
@@ -5562,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>50</v>
       </c>
@@ -5597,7 +5681,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>50</v>
       </c>
@@ -5632,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>50</v>
       </c>
@@ -5667,7 +5751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>50</v>
       </c>
@@ -5702,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>50</v>
       </c>
@@ -5737,7 +5821,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>50</v>
       </c>
@@ -5772,7 +5856,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>50</v>
       </c>
@@ -5807,7 +5891,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>50</v>
       </c>
@@ -5842,7 +5926,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>50</v>
       </c>
@@ -5877,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>50</v>
       </c>
@@ -5912,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>50</v>
       </c>
@@ -5947,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>50</v>
       </c>
@@ -5982,7 +6066,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>50</v>
       </c>
@@ -6017,7 +6101,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>50</v>
       </c>
@@ -6052,7 +6136,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>50</v>
       </c>
@@ -6087,7 +6171,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>50</v>
       </c>
@@ -6122,7 +6206,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>50</v>
       </c>
@@ -6157,7 +6241,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>50</v>
       </c>
@@ -6192,7 +6276,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>50</v>
       </c>
@@ -6227,7 +6311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>50</v>
       </c>
@@ -6262,7 +6346,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>50</v>
       </c>
@@ -6297,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>50</v>
       </c>
@@ -6332,7 +6416,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>50</v>
       </c>
@@ -6367,7 +6451,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>50</v>
       </c>
@@ -6402,7 +6486,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>50</v>
       </c>
@@ -6437,7 +6521,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>50</v>
       </c>
@@ -6472,7 +6556,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>50</v>
       </c>
@@ -6507,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>50</v>
       </c>
@@ -6542,7 +6626,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>50</v>
       </c>
@@ -6577,7 +6661,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>50</v>
       </c>
@@ -6612,7 +6696,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>100</v>
       </c>
@@ -6647,7 +6731,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>100</v>
       </c>
@@ -6682,7 +6766,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>100</v>
       </c>
@@ -6717,7 +6801,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>100</v>
       </c>
@@ -6752,7 +6836,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>100</v>
       </c>
@@ -6787,7 +6871,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>100</v>
       </c>
@@ -6822,7 +6906,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>100</v>
       </c>
@@ -6857,7 +6941,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6892,7 +6976,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6927,7 +7011,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>100</v>
       </c>
@@ -6962,7 +7046,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>100</v>
       </c>
@@ -6997,7 +7081,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>100</v>
       </c>
@@ -7032,7 +7116,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>100</v>
       </c>
@@ -7067,7 +7151,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>100</v>
       </c>
@@ -7102,7 +7186,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>100</v>
       </c>
@@ -7137,7 +7221,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>100</v>
       </c>
@@ -7172,7 +7256,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>100</v>
       </c>
@@ -7207,7 +7291,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>100</v>
       </c>
@@ -7242,7 +7326,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>100</v>
       </c>
@@ -7277,7 +7361,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>100</v>
       </c>
@@ -7312,7 +7396,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>100</v>
       </c>
@@ -7347,7 +7431,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>100</v>
       </c>
@@ -7382,7 +7466,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>100</v>
       </c>
@@ -7417,7 +7501,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>100</v>
       </c>
@@ -7452,7 +7536,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>100</v>
       </c>
@@ -7487,7 +7571,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>100</v>
       </c>
@@ -7522,7 +7606,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>100</v>
       </c>
@@ -7557,7 +7641,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>100</v>
       </c>
@@ -7592,7 +7676,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>200</v>
       </c>
@@ -7627,7 +7711,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>200</v>
       </c>
@@ -7662,7 +7746,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>200</v>
       </c>
@@ -7697,7 +7781,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>200</v>
       </c>
@@ -7732,7 +7816,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>200</v>
       </c>
@@ -7767,7 +7851,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>200</v>
       </c>
@@ -7802,7 +7886,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>200</v>
       </c>
@@ -7837,7 +7921,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>200</v>
       </c>
@@ -7872,7 +7956,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>200</v>
       </c>
@@ -7907,7 +7991,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>200</v>
       </c>
@@ -7942,7 +8026,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>200</v>
       </c>
@@ -7977,7 +8061,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>200</v>
       </c>
@@ -8012,7 +8096,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>200</v>
       </c>
@@ -8047,7 +8131,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>200</v>
       </c>
@@ -8082,7 +8166,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>200</v>
       </c>
@@ -8117,7 +8201,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>200</v>
       </c>
@@ -8152,7 +8236,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>200</v>
       </c>
@@ -8187,7 +8271,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>200</v>
       </c>
@@ -8222,7 +8306,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>200</v>
       </c>
@@ -8257,7 +8341,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>200</v>
       </c>
@@ -8292,7 +8376,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>200</v>
       </c>
@@ -8327,7 +8411,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>200</v>
       </c>
@@ -8362,7 +8446,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>200</v>
       </c>
@@ -8397,7 +8481,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>200</v>
       </c>
@@ -8432,7 +8516,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>200</v>
       </c>
@@ -8467,7 +8551,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>200</v>
       </c>
@@ -8502,7 +8586,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>200</v>
       </c>
@@ -8537,7 +8621,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>200</v>
       </c>
@@ -8572,7 +8656,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>200</v>
       </c>
@@ -8607,7 +8691,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>500</v>
       </c>
@@ -8642,7 +8726,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>500</v>
       </c>
@@ -8677,7 +8761,7 @@
         <v>5.9429999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>500</v>
       </c>
@@ -8712,7 +8796,7 @@
         <v>16.117000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>500</v>
       </c>
@@ -8747,7 +8831,7 @@
         <v>24.327999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>500</v>
       </c>
@@ -8782,7 +8866,7 @@
         <v>30.007999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>500</v>
       </c>
@@ -8817,7 +8901,7 @@
         <v>30.003</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>500</v>
       </c>
@@ -8852,7 +8936,7 @@
         <v>30.004999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>500</v>
       </c>
@@ -8887,7 +8971,7 @@
         <v>30.007999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>500</v>
       </c>
@@ -8922,7 +9006,7 @@
         <v>30.006</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>500</v>
       </c>
@@ -8957,7 +9041,7 @@
         <v>30.007000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>500</v>
       </c>
@@ -8992,7 +9076,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>500</v>
       </c>
@@ -9027,7 +9111,7 @@
         <v>11.208</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>500</v>
       </c>
@@ -9062,7 +9146,7 @@
         <v>22.225000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>500</v>
       </c>
@@ -9097,7 +9181,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>500</v>
       </c>
@@ -9132,7 +9216,7 @@
         <v>30.013000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>500</v>
       </c>
@@ -9167,7 +9251,7 @@
         <v>30.009</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>500</v>
       </c>
@@ -9202,7 +9286,7 @@
         <v>30.004999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>500</v>
       </c>
@@ -9237,7 +9321,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>500</v>
       </c>
@@ -9272,7 +9356,7 @@
         <v>30.007999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>500</v>
       </c>
@@ -9307,7 +9391,7 @@
         <v>30.013000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>500</v>
       </c>
@@ -9342,7 +9426,7 @@
         <v>5.2569999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>500</v>
       </c>
@@ -9377,7 +9461,7 @@
         <v>12.670999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>500</v>
       </c>
@@ -9412,7 +9496,7 @@
         <v>24.812000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>500</v>
       </c>
@@ -9447,7 +9531,7 @@
         <v>30.015999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>500</v>
       </c>
@@ -9482,7 +9566,7 @@
         <v>30.016999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>500</v>
       </c>
@@ -9517,7 +9601,7 @@
         <v>30.018000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>500</v>
       </c>
@@ -9552,7 +9636,7 @@
         <v>30.018000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>500</v>
       </c>
@@ -9587,7 +9671,7 @@
         <v>30.013999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>500</v>
       </c>
@@ -9622,7 +9706,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>500</v>
       </c>
@@ -9657,7 +9741,7 @@
         <v>30.015000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1000</v>
       </c>
@@ -9692,7 +9776,7 @@
         <v>30.004000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1000</v>
       </c>
@@ -9727,7 +9811,7 @@
         <v>30.007000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1000</v>
       </c>
@@ -9762,7 +9846,7 @@
         <v>30.007000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1000</v>
       </c>
@@ -9797,7 +9881,7 @@
         <v>30.006</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1000</v>
       </c>
@@ -9832,7 +9916,7 @@
         <v>30.018999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1000</v>
       </c>
@@ -9867,7 +9951,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1000</v>
       </c>
@@ -9902,7 +9986,7 @@
         <v>30.009</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1000</v>
       </c>
@@ -9937,7 +10021,7 @@
         <v>30.013000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1000</v>
       </c>
@@ -9972,7 +10056,7 @@
         <v>30.047999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1000</v>
       </c>
@@ -10007,7 +10091,7 @@
         <v>30.016999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1000</v>
       </c>
@@ -10042,7 +10126,7 @@
         <v>30.007999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1000</v>
       </c>
@@ -10077,7 +10161,7 @@
         <v>30.015000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1000</v>
       </c>
@@ -10112,7 +10196,7 @@
         <v>30.010999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1000</v>
       </c>
@@ -10147,7 +10231,7 @@
         <v>30.013999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1000</v>
       </c>
@@ -10182,7 +10266,7 @@
         <v>30.015999999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1000</v>
       </c>
@@ -10217,7 +10301,7 @@
         <v>30.018000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1000</v>
       </c>
@@ -10252,7 +10336,7 @@
         <v>30.029</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1000</v>
       </c>
@@ -10287,7 +10371,7 @@
         <v>30.045000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1000</v>
       </c>
@@ -10322,7 +10406,7 @@
         <v>30.016999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1000</v>
       </c>
@@ -10357,7 +10441,7 @@
         <v>30.047999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1000</v>
       </c>
@@ -10392,7 +10476,7 @@
         <v>30.041</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1000</v>
       </c>
@@ -10427,7 +10511,7 @@
         <v>30.050999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1000</v>
       </c>
@@ -10462,7 +10546,7 @@
         <v>30.045999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1000</v>
       </c>
@@ -10497,7 +10581,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1000</v>
       </c>
@@ -10532,7 +10616,7 @@
         <v>30.050999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1000</v>
       </c>
@@ -10567,7 +10651,7 @@
         <v>30.050999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1000</v>
       </c>
@@ -10602,7 +10686,7 @@
         <v>30.053999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1000</v>
       </c>
@@ -10637,7 +10721,7 @@
         <v>30.061</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1000</v>
       </c>
@@ -10672,7 +10756,7 @@
         <v>30.077999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1000</v>
       </c>
